--- a/El Oficinista/listcodlargo.xlsx
+++ b/El Oficinista/listcodlargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merche\Desktop\El Oficinista\El Oficinista\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merche\Desktop\El Oficinista\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$CX$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$CX$226</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="268">
   <si>
     <t>PE-0500.000000</t>
   </si>
@@ -654,6 +654,183 @@
   </si>
   <si>
     <t>cod</t>
+  </si>
+  <si>
+    <t>MA-0830.0.F</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2AJ</t>
+  </si>
+  <si>
+    <t>2CN</t>
+  </si>
+  <si>
+    <t>2EH</t>
+  </si>
+  <si>
+    <t>2DT</t>
+  </si>
+  <si>
+    <t>2AB</t>
+  </si>
+  <si>
+    <t>2BF</t>
+  </si>
+  <si>
+    <t>2CF</t>
+  </si>
+  <si>
+    <t>2DI</t>
+  </si>
+  <si>
+    <t>2BW</t>
+  </si>
+  <si>
+    <t>2CP</t>
+  </si>
+  <si>
+    <t>2EA</t>
+  </si>
+  <si>
+    <t>2BE</t>
+  </si>
+  <si>
+    <t>2HA</t>
+  </si>
+  <si>
+    <t>2AN</t>
+  </si>
+  <si>
+    <t>2DP</t>
+  </si>
+  <si>
+    <t>2AY</t>
+  </si>
+  <si>
+    <t>2EW</t>
+  </si>
+  <si>
+    <t>2BR</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>2EJ</t>
+  </si>
+  <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>2CC</t>
+  </si>
+  <si>
+    <t>2CL</t>
+  </si>
+  <si>
+    <t>2BL</t>
+  </si>
+  <si>
+    <t>40N</t>
+  </si>
+  <si>
+    <t>2DO</t>
+  </si>
+  <si>
+    <t>2AZ</t>
+  </si>
+  <si>
+    <t>2BJ</t>
+  </si>
+  <si>
+    <t>2AQ</t>
+  </si>
+  <si>
+    <t>2FB</t>
+  </si>
+  <si>
+    <t>2FC</t>
+  </si>
+  <si>
+    <t>2BS</t>
+  </si>
+  <si>
+    <t>2BP</t>
+  </si>
+  <si>
+    <t>2FD</t>
+  </si>
+  <si>
+    <t>2EN</t>
+  </si>
+  <si>
+    <t>2BC</t>
+  </si>
+  <si>
+    <t>2CD</t>
+  </si>
+  <si>
+    <t>2AP</t>
+  </si>
+  <si>
+    <t>2CO</t>
+  </si>
+  <si>
+    <t>30W</t>
+  </si>
+  <si>
+    <t>2CS</t>
+  </si>
+  <si>
+    <t>2FF</t>
+  </si>
+  <si>
+    <t>2CE</t>
+  </si>
+  <si>
+    <t>2EF</t>
+  </si>
+  <si>
+    <t>2ED</t>
+  </si>
+  <si>
+    <t>2DW</t>
+  </si>
+  <si>
+    <t>2AL</t>
+  </si>
+  <si>
+    <t>2ET</t>
+  </si>
+  <si>
+    <t>2BN</t>
+  </si>
+  <si>
+    <t>RP-0050.X</t>
+  </si>
+  <si>
+    <t>ME-0150.0.F</t>
+  </si>
+  <si>
+    <t>TA.0450.0N0.080</t>
+  </si>
+  <si>
+    <t>PA-0500.0S000P</t>
+  </si>
+  <si>
+    <t>RE-0010.0</t>
+  </si>
+  <si>
+    <t>TP.0900.0N0.145</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -689,9 +866,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX219"/>
+  <dimension ref="A1:CX226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,17 +1778,20 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="3">
+        <v>221</v>
+      </c>
       <c r="C3" s="1">
         <v>2150</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1">
-        <v>50</v>
+      <c r="E3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I3" s="1">
         <v>-35</v>
@@ -1618,6 +1802,18 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
+      <c r="AH3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS3" s="1">
         <v>15</v>
       </c>
@@ -1629,12 +1825,18 @@
       </c>
       <c r="BY3" s="1">
         <v>0</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="3">
+        <v>154</v>
+      </c>
       <c r="C4" s="1">
         <v>1700</v>
       </c>
@@ -1649,17 +1851,20 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="3">
+        <v>202</v>
+      </c>
       <c r="C5" s="1">
         <v>2150</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>50</v>
+      <c r="E5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I5" s="1">
         <v>-35</v>
@@ -1670,6 +1875,18 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
+      <c r="AH5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS5" s="1">
         <v>15</v>
       </c>
@@ -1681,23 +1898,29 @@
       </c>
       <c r="BY5" s="1">
         <v>0</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="C6" s="1">
         <v>2150</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50</v>
+      <c r="E6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I6" s="1">
         <v>-35</v>
@@ -1708,6 +1931,18 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
+      <c r="AH6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS6" s="1">
         <v>15</v>
       </c>
@@ -1719,23 +1954,29 @@
       </c>
       <c r="BY6" s="1">
         <v>0</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" s="1">
         <v>2150</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1">
-        <v>50</v>
+      <c r="E7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I7" s="1">
         <v>-35</v>
@@ -1746,6 +1987,18 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
+      <c r="AH7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS7" s="1">
         <v>15</v>
       </c>
@@ -1757,12 +2010,18 @@
       </c>
       <c r="BY7" s="1">
         <v>0</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="3">
+        <v>107</v>
+      </c>
       <c r="C8" s="1">
         <v>1600</v>
       </c>
@@ -1777,6 +2036,9 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="3">
+        <v>105</v>
+      </c>
       <c r="C9" s="1">
         <v>1600</v>
       </c>
@@ -1791,6 +2053,9 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="3">
+        <v>340</v>
+      </c>
       <c r="C10" s="1">
         <v>1620</v>
       </c>
@@ -1805,6 +2070,9 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="3">
+        <v>436</v>
+      </c>
       <c r="C11" s="1">
         <v>1635</v>
       </c>
@@ -1819,6 +2087,9 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="3">
+        <v>414</v>
+      </c>
       <c r="C12" s="1">
         <v>1600</v>
       </c>
@@ -1833,6 +2104,9 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="3">
+        <v>439</v>
+      </c>
       <c r="C13" s="1">
         <v>1650</v>
       </c>
@@ -1847,17 +2121,20 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="3">
+        <v>200</v>
+      </c>
       <c r="C14" s="1">
         <v>2150</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50</v>
+      <c r="E14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I14" s="1">
         <v>-35</v>
@@ -1868,6 +2145,18 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
+      <c r="AH14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS14" s="1">
         <v>15</v>
       </c>
@@ -1879,23 +2168,29 @@
       </c>
       <c r="BY14" s="1">
         <v>0</v>
+      </c>
+      <c r="CD14" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="3">
+        <v>234</v>
+      </c>
       <c r="C15" s="1">
         <v>2150</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>50</v>
+      <c r="E15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I15" s="1">
         <v>-35</v>
@@ -1906,6 +2201,18 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
+      <c r="AH15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS15" s="1">
         <v>15</v>
       </c>
@@ -1917,12 +2224,18 @@
       </c>
       <c r="BY15" s="1">
         <v>0</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B16" s="3">
+        <v>194</v>
+      </c>
       <c r="C16" s="1">
         <v>1600</v>
       </c>
@@ -1933,21 +2246,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B17" s="3">
+        <v>226</v>
+      </c>
       <c r="C17" s="1">
         <v>2150</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1">
-        <v>50</v>
+      <c r="E17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I17" s="1">
         <v>-35</v>
@@ -1958,6 +2274,18 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
+      <c r="AH17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS17" s="1">
         <v>15</v>
       </c>
@@ -1970,22 +2298,28 @@
       <c r="BY17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD17" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B18" s="3">
+        <v>223</v>
+      </c>
       <c r="C18" s="1">
         <v>2150</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1">
-        <v>50</v>
+      <c r="E18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I18" s="1">
         <v>-35</v>
@@ -1996,6 +2330,18 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
+      <c r="AH18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS18" s="1">
         <v>15</v>
       </c>
@@ -2008,11 +2354,17 @@
       <c r="BY18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD18" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B19" s="3">
+        <v>472</v>
+      </c>
       <c r="C19" s="1">
         <v>1630</v>
       </c>
@@ -2023,21 +2375,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B20" s="3">
+        <v>207</v>
+      </c>
       <c r="C20" s="1">
         <v>2150</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1">
-        <v>50</v>
+      <c r="E20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I20" s="1">
         <v>-35</v>
@@ -2048,6 +2403,18 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
+      <c r="AH20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS20" s="1">
         <v>15</v>
       </c>
@@ -2060,22 +2427,28 @@
       <c r="BY20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD20" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="C21" s="1">
         <v>2150</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
-        <v>50</v>
-      </c>
-      <c r="F21" s="1">
-        <v>50</v>
+      <c r="E21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I21" s="1">
         <v>-35</v>
@@ -2086,6 +2459,18 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
+      <c r="AH21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS21" s="1">
         <v>15</v>
       </c>
@@ -2098,11 +2483,17 @@
       <c r="BY21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD21" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B22" s="3">
+        <v>340</v>
+      </c>
       <c r="C22" s="1">
         <v>1620</v>
       </c>
@@ -2113,21 +2504,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B23" s="3">
+        <v>205</v>
+      </c>
       <c r="C23" s="1">
         <v>2150</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1">
-        <v>50</v>
+      <c r="E23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I23" s="1">
         <v>-35</v>
@@ -2138,6 +2532,18 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
+      <c r="AH23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS23" s="1">
         <v>15</v>
       </c>
@@ -2150,11 +2556,17 @@
       <c r="BY23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD23" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B24" s="3">
+        <v>319</v>
+      </c>
       <c r="C24" s="1">
         <v>1600</v>
       </c>
@@ -2165,21 +2577,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B25" s="3">
+        <v>212</v>
+      </c>
       <c r="C25" s="1">
         <v>2150</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1">
-        <v>50</v>
+      <c r="E25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I25" s="1">
         <v>-35</v>
@@ -2190,6 +2605,18 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
+      <c r="AH25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN25" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS25" s="1">
         <v>15</v>
       </c>
@@ -2202,22 +2629,28 @@
       <c r="BY25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD25" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B26" s="3">
+        <v>233</v>
+      </c>
       <c r="C26" s="1">
         <v>2150</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1">
-        <v>50</v>
+      <c r="E26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I26" s="1">
         <v>-35</v>
@@ -2228,6 +2661,18 @@
       <c r="K26" s="1">
         <v>0</v>
       </c>
+      <c r="AH26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN26" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS26" s="1">
         <v>15</v>
       </c>
@@ -2240,11 +2685,17 @@
       <c r="BY26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD26" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B27" s="3">
+        <v>405</v>
+      </c>
       <c r="C27" s="1">
         <v>1630</v>
       </c>
@@ -2255,21 +2706,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B28" s="3">
+        <v>270</v>
+      </c>
       <c r="C28" s="1">
         <v>2150</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1">
-        <v>50</v>
+      <c r="E28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I28" s="1">
         <v>-35</v>
@@ -2280,6 +2734,18 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
+      <c r="AH28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN28" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS28" s="1">
         <v>15</v>
       </c>
@@ -2292,22 +2758,28 @@
       <c r="BY28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD28" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B29" s="3">
+        <v>206</v>
+      </c>
       <c r="C29" s="1">
         <v>2150</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
-        <v>50</v>
-      </c>
-      <c r="F29" s="1">
-        <v>50</v>
+      <c r="E29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I29" s="1">
         <v>-35</v>
@@ -2318,6 +2790,18 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
+      <c r="AH29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN29" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS29" s="1">
         <v>15</v>
       </c>
@@ -2330,22 +2814,28 @@
       <c r="BY29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B30" s="3">
+        <v>230</v>
+      </c>
       <c r="C30" s="1">
         <v>2150</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1">
-        <v>50</v>
+      <c r="E30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I30" s="1">
         <v>-35</v>
@@ -2356,6 +2846,18 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
+      <c r="AH30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN30" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS30" s="1">
         <v>15</v>
       </c>
@@ -2368,22 +2870,28 @@
       <c r="BY30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD30" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B31" s="3">
+        <v>232</v>
+      </c>
       <c r="C31" s="1">
         <v>2150</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
-      <c r="E31" s="1">
-        <v>50</v>
-      </c>
-      <c r="F31" s="1">
-        <v>50</v>
+      <c r="E31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I31" s="1">
         <v>-35</v>
@@ -2394,6 +2902,18 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
+      <c r="AH31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS31" s="1">
         <v>15</v>
       </c>
@@ -2406,22 +2926,28 @@
       <c r="BY31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD31" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B32" s="3">
+        <v>237</v>
+      </c>
       <c r="C32" s="1">
         <v>2150</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
-        <v>50</v>
-      </c>
-      <c r="F32" s="1">
-        <v>50</v>
+      <c r="E32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I32" s="1">
         <v>-35</v>
@@ -2432,6 +2958,18 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
+      <c r="AH32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS32" s="1">
         <v>15</v>
       </c>
@@ -2444,11 +2982,17 @@
       <c r="BY32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B33" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="C33" s="1">
         <v>1600</v>
       </c>
@@ -2459,21 +3003,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B34" s="3">
+        <v>201</v>
+      </c>
       <c r="C34" s="1">
         <v>2150</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1">
-        <v>50</v>
+      <c r="E34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I34" s="1">
         <v>-35</v>
@@ -2484,6 +3031,18 @@
       <c r="K34" s="1">
         <v>0</v>
       </c>
+      <c r="AH34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS34" s="1">
         <v>15</v>
       </c>
@@ -2496,11 +3055,17 @@
       <c r="BY34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD34" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B35" s="3">
+        <v>113</v>
+      </c>
       <c r="C35" s="1">
         <v>1600</v>
       </c>
@@ -2511,10 +3076,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B36" s="3">
+        <v>421</v>
+      </c>
       <c r="C36" s="1">
         <v>1600</v>
       </c>
@@ -2525,21 +3093,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B37" s="3">
+        <v>202</v>
+      </c>
       <c r="C37" s="1">
         <v>2150</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="1">
-        <v>50</v>
-      </c>
-      <c r="F37" s="1">
-        <v>50</v>
+      <c r="E37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I37" s="1">
         <v>-35</v>
@@ -2550,6 +3121,18 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
+      <c r="AH37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN37" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS37" s="1">
         <v>15</v>
       </c>
@@ -2562,22 +3145,28 @@
       <c r="BY37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD37" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B38" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="C38" s="1">
         <v>750</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="1">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1">
-        <v>50</v>
+      <c r="E38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I38" s="1">
         <v>-35</v>
@@ -2588,6 +3177,18 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
+      <c r="AH38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN38" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS38" s="1">
         <v>15</v>
       </c>
@@ -2600,22 +3201,28 @@
       <c r="BY38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD38" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B39" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="C39" s="1">
         <v>2150</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="1">
-        <v>50</v>
-      </c>
-      <c r="F39" s="1">
-        <v>50</v>
+      <c r="E39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I39" s="1">
         <v>-35</v>
@@ -2626,6 +3233,18 @@
       <c r="K39" s="1">
         <v>0</v>
       </c>
+      <c r="AH39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN39" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS39" s="1">
         <v>15</v>
       </c>
@@ -2638,11 +3257,17 @@
       <c r="BY39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B40" s="3">
+        <v>108</v>
+      </c>
       <c r="C40" s="1">
         <v>2000</v>
       </c>
@@ -2653,10 +3278,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B41" s="3">
+        <v>126</v>
+      </c>
       <c r="C41" s="1">
         <v>1600</v>
       </c>
@@ -2667,10 +3295,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B42" s="3">
+        <v>340</v>
+      </c>
       <c r="C42" s="1">
         <v>1600</v>
       </c>
@@ -2681,21 +3312,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B43" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="C43" s="1">
         <v>2150</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
-      <c r="E43" s="1">
-        <v>50</v>
-      </c>
-      <c r="F43" s="1">
-        <v>50</v>
+      <c r="E43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I43" s="1">
         <v>-35</v>
@@ -2706,6 +3340,18 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
+      <c r="AH43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN43" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS43" s="1">
         <v>15</v>
       </c>
@@ -2718,11 +3364,17 @@
       <c r="BY43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD43" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B44" s="3">
+        <v>506</v>
+      </c>
       <c r="C44" s="1">
         <v>1800</v>
       </c>
@@ -2733,10 +3385,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B45" s="3">
+        <v>340</v>
+      </c>
       <c r="C45" s="1">
         <v>1600</v>
       </c>
@@ -2747,10 +3402,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B46" s="3">
+        <v>109</v>
+      </c>
       <c r="C46" s="1">
         <v>2000</v>
       </c>
@@ -2761,10 +3419,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B47" s="3">
+        <v>131</v>
+      </c>
       <c r="C47" s="1">
         <v>1350</v>
       </c>
@@ -2775,21 +3436,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B48" s="3">
+        <v>214</v>
+      </c>
       <c r="C48" s="1">
         <v>2150</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="1">
-        <v>50</v>
-      </c>
-      <c r="F48" s="1">
-        <v>50</v>
+      <c r="E48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I48" s="1">
         <v>-35</v>
@@ -2800,6 +3464,18 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
+      <c r="AH48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN48" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS48" s="1">
         <v>15</v>
       </c>
@@ -2812,22 +3488,28 @@
       <c r="BY48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD48" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B49" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="C49" s="1">
         <v>2150</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="1">
-        <v>50</v>
-      </c>
-      <c r="F49" s="1">
-        <v>50</v>
+      <c r="E49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I49" s="1">
         <v>-35</v>
@@ -2838,6 +3520,18 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
+      <c r="AH49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN49" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS49" s="1">
         <v>15</v>
       </c>
@@ -2850,22 +3544,28 @@
       <c r="BY49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD49" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B50" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="C50" s="1">
         <v>2150</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="1">
-        <v>50</v>
-      </c>
-      <c r="F50" s="1">
-        <v>50</v>
+      <c r="E50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I50" s="1">
         <v>-35</v>
@@ -2876,6 +3576,18 @@
       <c r="K50" s="1">
         <v>0</v>
       </c>
+      <c r="AH50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN50" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS50" s="1">
         <v>15</v>
       </c>
@@ -2888,11 +3600,17 @@
       <c r="BY50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD50" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B51" s="3">
+        <v>502</v>
+      </c>
       <c r="C51" s="1">
         <v>1800</v>
       </c>
@@ -2903,21 +3621,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B52" s="3">
+        <v>225</v>
+      </c>
       <c r="C52" s="1">
         <v>2150</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
-      <c r="E52" s="1">
-        <v>50</v>
-      </c>
-      <c r="F52" s="1">
-        <v>50</v>
+      <c r="E52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I52" s="1">
         <v>-35</v>
@@ -2928,6 +3649,18 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
+      <c r="AH52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN52" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS52" s="1">
         <v>15</v>
       </c>
@@ -2940,11 +3673,17 @@
       <c r="BY52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD52" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B53" s="3">
+        <v>258</v>
+      </c>
       <c r="C53" s="1">
         <v>2100</v>
       </c>
@@ -2955,10 +3694,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B54" s="3">
+        <v>249</v>
+      </c>
       <c r="C54" s="1">
         <v>2150</v>
       </c>
@@ -2969,21 +3711,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B55" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="C55" s="1">
         <v>2150</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="1">
-        <v>50</v>
-      </c>
-      <c r="F55" s="1">
-        <v>50</v>
+      <c r="E55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I55" s="1">
         <v>-35</v>
@@ -2994,6 +3739,18 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
+      <c r="AH55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN55" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS55" s="1">
         <v>15</v>
       </c>
@@ -3006,11 +3763,17 @@
       <c r="BY55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD55" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B56" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="C56" s="1">
         <v>2150</v>
       </c>
@@ -3021,10 +3784,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B57" s="3">
+        <v>256</v>
+      </c>
       <c r="C57" s="1">
         <v>2150</v>
       </c>
@@ -3035,10 +3801,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B58" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="C58" s="1">
         <v>2150</v>
       </c>
@@ -3049,10 +3818,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B59" s="3">
+        <v>251</v>
+      </c>
       <c r="C59" s="1">
         <v>2150</v>
       </c>
@@ -3063,21 +3835,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B60" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="C60" s="1">
         <v>2150</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>50</v>
-      </c>
-      <c r="F60" s="1">
-        <v>50</v>
+      <c r="E60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I60" s="1">
         <v>-35</v>
@@ -3088,6 +3863,18 @@
       <c r="K60" s="1">
         <v>0</v>
       </c>
+      <c r="AH60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN60" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS60" s="1">
         <v>15</v>
       </c>
@@ -3100,22 +3887,28 @@
       <c r="BY60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD60" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B61" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="C61" s="1">
         <v>2150</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
-      <c r="E61" s="1">
-        <v>50</v>
-      </c>
-      <c r="F61" s="1">
-        <v>50</v>
+      <c r="E61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I61" s="1">
         <v>-35</v>
@@ -3126,6 +3919,18 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
+      <c r="AH61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN61" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS61" s="1">
         <v>15</v>
       </c>
@@ -3138,11 +3943,17 @@
       <c r="BY61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD61" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B62" s="3">
+        <v>262</v>
+      </c>
       <c r="C62" s="1">
         <v>2100</v>
       </c>
@@ -3153,10 +3964,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B63" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="C63" s="1">
         <v>2150</v>
       </c>
@@ -3167,10 +3981,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B64" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C64" s="1">
         <v>2150</v>
       </c>
@@ -3181,10 +3998,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B65" s="3">
+        <v>110</v>
+      </c>
       <c r="C65" s="1">
         <v>1600</v>
       </c>
@@ -3195,10 +4015,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B66" s="3">
+        <v>524</v>
+      </c>
       <c r="C66" s="1">
         <v>600</v>
       </c>
@@ -3209,10 +4032,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B67" s="3">
+        <v>525</v>
+      </c>
       <c r="C67" s="1">
         <v>600</v>
       </c>
@@ -3223,21 +4049,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B68" s="3">
+        <v>208</v>
+      </c>
       <c r="C68" s="1">
         <v>2150</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
-      <c r="E68" s="1">
-        <v>50</v>
-      </c>
-      <c r="F68" s="1">
-        <v>50</v>
+      <c r="E68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I68" s="1">
         <v>-35</v>
@@ -3248,6 +4077,18 @@
       <c r="K68" s="1">
         <v>0</v>
       </c>
+      <c r="AH68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN68" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS68" s="1">
         <v>15</v>
       </c>
@@ -3260,11 +4101,17 @@
       <c r="BY68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD68" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B69" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="C69" s="1">
         <v>2150</v>
       </c>
@@ -3275,21 +4122,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B70" s="3">
+        <v>222</v>
+      </c>
       <c r="C70" s="1">
         <v>2150</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E70" s="1">
-        <v>50</v>
-      </c>
-      <c r="F70" s="1">
-        <v>50</v>
+      <c r="E70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I70" s="1">
         <v>-35</v>
@@ -3300,6 +4150,18 @@
       <c r="K70" s="1">
         <v>0</v>
       </c>
+      <c r="AH70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN70" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS70" s="1">
         <v>15</v>
       </c>
@@ -3312,22 +4174,28 @@
       <c r="BY70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD70" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B71" s="3">
+        <v>213</v>
+      </c>
       <c r="C71" s="1">
         <v>2150</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
-      <c r="E71" s="1">
-        <v>50</v>
-      </c>
-      <c r="F71" s="1">
-        <v>50</v>
+      <c r="E71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I71" s="1">
         <v>-35</v>
@@ -3338,6 +4206,18 @@
       <c r="K71" s="1">
         <v>0</v>
       </c>
+      <c r="AH71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN71" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS71" s="1">
         <v>15</v>
       </c>
@@ -3350,11 +4230,17 @@
       <c r="BY71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD71" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B72" s="3">
+        <v>610</v>
+      </c>
       <c r="C72" s="1">
         <v>1600</v>
       </c>
@@ -3365,10 +4251,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B73" s="3">
+        <v>151</v>
+      </c>
       <c r="C73" s="1">
         <v>1400</v>
       </c>
@@ -3379,21 +4268,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B74" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="C74" s="1">
         <v>2150</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="E74" s="1">
-        <v>50</v>
-      </c>
-      <c r="F74" s="1">
-        <v>50</v>
+      <c r="E74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I74" s="1">
         <v>-35</v>
@@ -3404,6 +4296,18 @@
       <c r="K74" s="1">
         <v>0</v>
       </c>
+      <c r="AH74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN74" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS74" s="1">
         <v>15</v>
       </c>
@@ -3416,11 +4320,17 @@
       <c r="BY74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD74" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B75" s="3">
+        <v>267</v>
+      </c>
       <c r="C75" s="1">
         <v>445</v>
       </c>
@@ -3431,21 +4341,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B76" s="3">
+        <v>231</v>
+      </c>
       <c r="C76" s="1">
         <v>2150</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
-      <c r="E76" s="1">
-        <v>50</v>
-      </c>
-      <c r="F76" s="1">
-        <v>50</v>
+      <c r="E76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I76" s="1">
         <v>-35</v>
@@ -3456,6 +4369,18 @@
       <c r="K76" s="1">
         <v>0</v>
       </c>
+      <c r="AH76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN76" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS76" s="1">
         <v>15</v>
       </c>
@@ -3468,11 +4393,17 @@
       <c r="BY76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD76" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B77" s="3">
+        <v>102</v>
+      </c>
       <c r="C77" s="1">
         <v>1700</v>
       </c>
@@ -3483,10 +4414,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B78" s="3">
+        <v>111</v>
+      </c>
       <c r="C78" s="1">
         <v>1700</v>
       </c>
@@ -3497,21 +4431,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B79" s="3">
+        <v>216</v>
+      </c>
       <c r="C79" s="1">
         <v>2150</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
-      <c r="E79" s="1">
-        <v>50</v>
-      </c>
-      <c r="F79" s="1">
-        <v>50</v>
+      <c r="E79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I79" s="1">
         <v>-35</v>
@@ -3522,6 +4459,18 @@
       <c r="K79" s="1">
         <v>0</v>
       </c>
+      <c r="AH79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN79" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS79" s="1">
         <v>15</v>
       </c>
@@ -3534,22 +4483,28 @@
       <c r="BY79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD79" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B80" s="3">
+        <v>209</v>
+      </c>
       <c r="C80" s="1">
         <v>2150</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
-      <c r="E80" s="1">
-        <v>50</v>
-      </c>
-      <c r="F80" s="1">
-        <v>50</v>
+      <c r="E80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I80" s="1">
         <v>-35</v>
@@ -3560,6 +4515,18 @@
       <c r="K80" s="1">
         <v>0</v>
       </c>
+      <c r="AH80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN80" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS80" s="1">
         <v>15</v>
       </c>
@@ -3572,11 +4539,17 @@
       <c r="BY80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD80" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B81" s="3">
+        <v>410</v>
+      </c>
       <c r="C81" s="1">
         <v>1880</v>
       </c>
@@ -3587,10 +4560,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B82" s="3">
+        <v>264</v>
+      </c>
       <c r="C82" s="1">
         <v>2150</v>
       </c>
@@ -3601,10 +4577,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B83" s="3">
+        <v>279</v>
+      </c>
       <c r="C83" s="1">
         <v>2150</v>
       </c>
@@ -3615,21 +4594,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="B84" s="3">
+        <v>235</v>
+      </c>
       <c r="C84" s="1">
         <v>2150</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
-      <c r="E84" s="1">
-        <v>50</v>
-      </c>
-      <c r="F84" s="1">
-        <v>50</v>
+      <c r="E84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I84" s="1">
         <v>-35</v>
@@ -3640,6 +4622,18 @@
       <c r="K84" s="1">
         <v>0</v>
       </c>
+      <c r="AH84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN84" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS84" s="1">
         <v>15</v>
       </c>
@@ -3652,11 +4646,17 @@
       <c r="BY84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD84" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B85" s="3">
+        <v>380</v>
+      </c>
       <c r="C85" s="1">
         <v>1140</v>
       </c>
@@ -3667,10 +4667,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B86" s="3">
+        <v>484</v>
+      </c>
       <c r="C86" s="1">
         <v>2500</v>
       </c>
@@ -3681,10 +4684,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B87" s="3">
+        <v>437</v>
+      </c>
       <c r="C87" s="1">
         <v>1880</v>
       </c>
@@ -3695,10 +4701,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B88" s="3">
+        <v>377</v>
+      </c>
       <c r="C88" s="1">
         <v>1720</v>
       </c>
@@ -3709,10 +4718,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B89" s="3">
+        <v>112</v>
+      </c>
       <c r="C89" s="1">
         <v>2000</v>
       </c>
@@ -3723,21 +4735,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B90" s="3">
+        <v>282</v>
+      </c>
       <c r="C90" s="1">
         <v>2150</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
-      <c r="E90" s="1">
-        <v>50</v>
-      </c>
-      <c r="F90" s="1">
-        <v>50</v>
+      <c r="E90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I90" s="1">
         <v>-35</v>
@@ -3748,6 +4763,18 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
+      <c r="AH90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN90" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS90" s="1">
         <v>15</v>
       </c>
@@ -3760,11 +4787,17 @@
       <c r="BY90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD90" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B91" s="3">
+        <v>304</v>
+      </c>
       <c r="C91" s="1">
         <v>2560</v>
       </c>
@@ -3775,10 +4808,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B92" s="3">
+        <v>327</v>
+      </c>
       <c r="C92" s="1">
         <v>1190</v>
       </c>
@@ -3789,21 +4825,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B93" s="3">
+        <v>207</v>
+      </c>
       <c r="C93" s="1">
         <v>2150</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
-      <c r="E93" s="1">
-        <v>50</v>
-      </c>
-      <c r="F93" s="1">
-        <v>50</v>
+      <c r="E93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I93" s="1">
         <v>-35</v>
@@ -3814,6 +4853,18 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
+      <c r="AH93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN93" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS93" s="1">
         <v>15</v>
       </c>
@@ -3826,11 +4877,17 @@
       <c r="BY93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD93" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B94" s="3">
+        <v>403</v>
+      </c>
       <c r="C94" s="1">
         <v>1600</v>
       </c>
@@ -3841,10 +4898,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B95" s="3">
+        <v>484</v>
+      </c>
       <c r="C95" s="1">
         <v>2520</v>
       </c>
@@ -3855,10 +4915,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B96" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="C96" s="1">
         <v>2150</v>
       </c>
@@ -3869,10 +4932,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B97" s="3">
+        <v>262</v>
+      </c>
       <c r="C97" s="1">
         <v>2150</v>
       </c>
@@ -3883,21 +4949,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B98" s="3">
+        <v>294</v>
+      </c>
       <c r="C98" s="1">
         <v>2150</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
-      <c r="E98" s="1">
-        <v>50</v>
-      </c>
-      <c r="F98" s="1">
-        <v>50</v>
+      <c r="E98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I98" s="1">
         <v>-35</v>
@@ -3908,6 +4977,18 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
+      <c r="AH98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN98" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS98" s="1">
         <v>15</v>
       </c>
@@ -3920,11 +5001,17 @@
       <c r="BY98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD98" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B99" s="3">
+        <v>428</v>
+      </c>
       <c r="C99" s="1">
         <v>1690</v>
       </c>
@@ -3935,10 +5022,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="B100" s="3">
+        <v>125</v>
+      </c>
       <c r="C100" s="1">
         <v>1600</v>
       </c>
@@ -3949,10 +5039,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B101" s="3">
+        <v>492</v>
+      </c>
       <c r="C101" s="1">
         <v>1580</v>
       </c>
@@ -3963,10 +5056,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B102" s="3">
+        <v>257</v>
+      </c>
       <c r="C102" s="1">
         <v>2150</v>
       </c>
@@ -3977,10 +5073,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B103" s="3">
+        <v>300</v>
+      </c>
       <c r="K103" s="1">
         <v>0</v>
       </c>
@@ -3988,10 +5087,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B104" s="3">
+        <v>337</v>
+      </c>
       <c r="C104" s="1">
         <v>1700</v>
       </c>
@@ -4002,10 +5104,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B105" s="3">
+        <v>416</v>
+      </c>
       <c r="C105" s="1">
         <v>1230</v>
       </c>
@@ -4016,10 +5121,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B106" s="3">
+        <v>357</v>
+      </c>
       <c r="C106" s="1">
         <v>1140</v>
       </c>
@@ -4030,10 +5138,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="B107" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="C107" s="1">
         <v>1190</v>
       </c>
@@ -4044,10 +5155,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B108" s="3">
+        <v>367</v>
+      </c>
       <c r="K108" s="1">
         <v>0</v>
       </c>
@@ -4055,10 +5169,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B109" s="3">
+        <v>373</v>
+      </c>
       <c r="C109" s="1">
         <v>1130</v>
       </c>
@@ -4069,10 +5186,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B110" s="3">
+        <v>363</v>
+      </c>
       <c r="C110" s="1">
         <v>1190</v>
       </c>
@@ -4083,10 +5203,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="B111" s="3">
+        <v>137</v>
+      </c>
       <c r="K111" s="1">
         <v>0</v>
       </c>
@@ -4094,10 +5217,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B112" s="3">
+        <v>254</v>
+      </c>
       <c r="K112" s="1">
         <v>0</v>
       </c>
@@ -4105,10 +5231,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B113" s="3">
+        <v>249</v>
+      </c>
       <c r="C113" s="1">
         <v>2150</v>
       </c>
@@ -4119,10 +5248,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B114" s="3">
+        <v>158</v>
+      </c>
       <c r="C114" s="1">
         <v>1600</v>
       </c>
@@ -4133,21 +5265,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B115" s="3">
+        <v>206</v>
+      </c>
       <c r="C115" s="1">
         <v>2150</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
-      <c r="E115" s="1">
-        <v>50</v>
-      </c>
-      <c r="F115" s="1">
-        <v>50</v>
+      <c r="E115" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I115" s="1">
         <v>-35</v>
@@ -4158,6 +5293,18 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
+      <c r="AH115" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM115" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN115" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS115" s="1">
         <v>15</v>
       </c>
@@ -4170,11 +5317,17 @@
       <c r="BY115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD115" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B116" s="3">
+        <v>181</v>
+      </c>
       <c r="C116" s="1">
         <v>1650</v>
       </c>
@@ -4185,21 +5338,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B117" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="C117" s="1">
         <v>2150</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
-      <c r="E117" s="1">
-        <v>50</v>
-      </c>
-      <c r="F117" s="1">
-        <v>50</v>
+      <c r="E117" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I117" s="1">
         <v>-35</v>
@@ -4210,6 +5366,18 @@
       <c r="K117" s="1">
         <v>0</v>
       </c>
+      <c r="AH117" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM117" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN117" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS117" s="1">
         <v>15</v>
       </c>
@@ -4222,11 +5390,17 @@
       <c r="BY117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD117" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B118" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="C118" s="1">
         <v>2150</v>
       </c>
@@ -4237,10 +5411,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="B119" s="3">
+        <v>454</v>
+      </c>
       <c r="C119" s="1">
         <v>1360</v>
       </c>
@@ -4251,10 +5428,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="B120" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C120" s="1">
         <v>2200</v>
       </c>
@@ -4265,21 +5445,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B121" s="3">
+        <v>239</v>
+      </c>
       <c r="C121" s="1">
         <v>2150</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
-      <c r="E121" s="1">
-        <v>50</v>
-      </c>
-      <c r="F121" s="1">
-        <v>50</v>
+      <c r="E121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I121" s="1">
         <v>-35</v>
@@ -4290,6 +5473,18 @@
       <c r="K121" s="1">
         <v>0</v>
       </c>
+      <c r="AH121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK121" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN121" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS121" s="1">
         <v>15</v>
       </c>
@@ -4302,11 +5497,17 @@
       <c r="BY121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD121" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="B122" s="3">
+        <v>189</v>
+      </c>
       <c r="C122" s="1">
         <v>1650</v>
       </c>
@@ -4317,10 +5518,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B123" s="3">
+        <v>116</v>
+      </c>
       <c r="C123" s="1">
         <v>950</v>
       </c>
@@ -4331,10 +5535,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B124" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="C124" s="1">
         <v>2150</v>
       </c>
@@ -4345,10 +5552,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B125" s="3">
+        <v>267</v>
+      </c>
       <c r="C125" s="1">
         <v>1830</v>
       </c>
@@ -4359,10 +5569,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="B126" s="3">
+        <v>292</v>
+      </c>
       <c r="C126" s="1">
         <v>2150</v>
       </c>
@@ -4373,10 +5586,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B127" s="3">
+        <v>108</v>
+      </c>
       <c r="C127" s="1">
         <v>2000</v>
       </c>
@@ -4387,21 +5603,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="B128" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="C128" s="1">
         <v>2150</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
-      <c r="E128" s="1">
-        <v>50</v>
-      </c>
-      <c r="F128" s="1">
-        <v>50</v>
+      <c r="E128" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I128" s="1">
         <v>-35</v>
@@ -4412,6 +5631,18 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
+      <c r="AH128" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK128" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM128" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN128" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS128" s="1">
         <v>15</v>
       </c>
@@ -4424,11 +5655,17 @@
       <c r="BY128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD128" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B129" s="3">
+        <v>463</v>
+      </c>
       <c r="C129" s="1">
         <v>1650</v>
       </c>
@@ -4439,10 +5676,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="B130" s="3">
+        <v>259</v>
+      </c>
       <c r="C130" s="1">
         <v>2100</v>
       </c>
@@ -4453,21 +5693,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B131" s="3">
+        <v>282</v>
+      </c>
       <c r="C131" s="1">
         <v>2150</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
-      <c r="E131" s="1">
-        <v>50</v>
-      </c>
-      <c r="F131" s="1">
-        <v>50</v>
+      <c r="E131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I131" s="1">
         <v>-35</v>
@@ -4478,6 +5721,18 @@
       <c r="K131" s="1">
         <v>0</v>
       </c>
+      <c r="AH131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK131" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN131" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS131" s="1">
         <v>15</v>
       </c>
@@ -4490,11 +5745,17 @@
       <c r="BY131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD131" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="B132" s="3">
+        <v>447</v>
+      </c>
       <c r="C132" s="1">
         <v>1620</v>
       </c>
@@ -4505,21 +5766,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B133" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="C133" s="1">
         <v>2200</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
       </c>
-      <c r="E133" s="1">
-        <v>50</v>
-      </c>
-      <c r="F133" s="1">
-        <v>50</v>
+      <c r="E133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I133" s="1">
         <v>-35</v>
@@ -4530,6 +5794,18 @@
       <c r="K133" s="1">
         <v>0</v>
       </c>
+      <c r="AH133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN133" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS133" s="1">
         <v>15</v>
       </c>
@@ -4542,11 +5818,17 @@
       <c r="BY133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD133" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B134" s="3">
+        <v>350</v>
+      </c>
       <c r="C134" s="1">
         <v>1600</v>
       </c>
@@ -4557,10 +5839,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B135" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="C135" s="1">
         <v>1140</v>
       </c>
@@ -4571,10 +5856,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="B136" s="3">
+        <v>484</v>
+      </c>
       <c r="C136" s="1">
         <v>2520</v>
       </c>
@@ -4585,10 +5873,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="B137" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="C137" s="1">
         <v>2150</v>
       </c>
@@ -4599,10 +5890,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="B138" s="3">
+        <v>311</v>
+      </c>
       <c r="K138" s="1">
         <v>0</v>
       </c>
@@ -4610,10 +5904,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="B139" s="3">
+        <v>242</v>
+      </c>
       <c r="C139" s="1">
         <v>2150</v>
       </c>
@@ -4624,10 +5921,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="B140" s="3">
+        <v>291</v>
+      </c>
       <c r="C140" s="1">
         <v>2150</v>
       </c>
@@ -4638,10 +5938,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B141" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="C141" s="1">
         <v>2150</v>
       </c>
@@ -4652,10 +5955,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="B142" s="3">
+        <v>128</v>
+      </c>
       <c r="C142" s="1">
         <v>1600</v>
       </c>
@@ -4666,10 +5972,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B143" s="3">
+        <v>266</v>
+      </c>
       <c r="C143" s="1">
         <v>2150</v>
       </c>
@@ -4680,10 +5989,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="B144" s="3">
+        <v>356</v>
+      </c>
       <c r="C144" s="1">
         <v>1150</v>
       </c>
@@ -4694,10 +6006,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B145" s="3">
+        <v>337</v>
+      </c>
       <c r="C145" s="1">
         <v>1700</v>
       </c>
@@ -4708,10 +6023,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="B146" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="C146" s="1">
         <v>2150</v>
       </c>
@@ -4722,10 +6040,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="B147" s="3">
+        <v>401</v>
+      </c>
       <c r="C147" s="1">
         <v>1880</v>
       </c>
@@ -4736,21 +6057,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="B148" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="C148" s="1">
         <v>2150</v>
       </c>
       <c r="D148" s="1">
         <v>0</v>
       </c>
-      <c r="E148" s="1">
-        <v>50</v>
-      </c>
-      <c r="F148" s="1">
-        <v>50</v>
+      <c r="E148" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I148" s="1">
         <v>-35</v>
@@ -4761,6 +6085,18 @@
       <c r="K148" s="1">
         <v>0</v>
       </c>
+      <c r="AH148" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM148" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN148" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS148" s="1">
         <v>15</v>
       </c>
@@ -4773,11 +6109,17 @@
       <c r="BY148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD148" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="B149" s="3">
+        <v>337</v>
+      </c>
       <c r="C149" s="1">
         <v>1700</v>
       </c>
@@ -4788,10 +6130,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="B150" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="C150" s="1">
         <v>2150</v>
       </c>
@@ -4802,10 +6147,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="B151" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="C151" s="1">
         <v>2150</v>
       </c>
@@ -4816,10 +6164,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="B152" s="3">
+        <v>260</v>
+      </c>
       <c r="C152" s="1">
         <v>2150</v>
       </c>
@@ -4830,21 +6181,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="B153" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="C153" s="1">
         <v>2150</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
       </c>
-      <c r="E153" s="1">
-        <v>50</v>
-      </c>
-      <c r="F153" s="1">
-        <v>50</v>
+      <c r="E153" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I153" s="1">
         <v>-35</v>
@@ -4855,6 +6209,18 @@
       <c r="K153" s="1">
         <v>0</v>
       </c>
+      <c r="AH153" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK153" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM153" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN153" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS153" s="1">
         <v>15</v>
       </c>
@@ -4867,11 +6233,17 @@
       <c r="BY153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD153" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="B154" s="3">
+        <v>268</v>
+      </c>
       <c r="C154" s="1">
         <v>2150</v>
       </c>
@@ -4882,10 +6254,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B155" s="3">
+        <v>481</v>
+      </c>
       <c r="C155" s="1">
         <v>1200</v>
       </c>
@@ -4896,10 +6271,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="B156" s="3">
+        <v>336</v>
+      </c>
       <c r="C156" s="1">
         <v>1190</v>
       </c>
@@ -4910,10 +6288,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="B157" s="3">
+        <v>651</v>
+      </c>
       <c r="C157" s="1">
         <v>1600</v>
       </c>
@@ -4924,10 +6305,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="B158" s="3">
+        <v>802</v>
+      </c>
       <c r="C158" s="1">
         <v>1100</v>
       </c>
@@ -4938,10 +6322,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="B159" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="C159" s="1">
         <v>2150</v>
       </c>
@@ -4952,21 +6339,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="B160" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C160" s="1">
         <v>2150</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
       </c>
-      <c r="E160" s="1">
-        <v>50</v>
-      </c>
-      <c r="F160" s="1">
-        <v>50</v>
+      <c r="E160" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I160" s="1">
         <v>-35</v>
@@ -4977,6 +6367,18 @@
       <c r="K160" s="1">
         <v>0</v>
       </c>
+      <c r="AH160" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK160" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM160" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN160" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS160" s="1">
         <v>15</v>
       </c>
@@ -4989,22 +6391,28 @@
       <c r="BY160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD160" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="B161" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="C161" s="1">
         <v>2150</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
       </c>
-      <c r="E161" s="1">
-        <v>50</v>
-      </c>
-      <c r="F161" s="1">
-        <v>50</v>
+      <c r="E161" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I161" s="1">
         <v>-35</v>
@@ -5015,6 +6423,18 @@
       <c r="K161" s="1">
         <v>0</v>
       </c>
+      <c r="AH161" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK161" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM161" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN161" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS161" s="1">
         <v>15</v>
       </c>
@@ -5027,11 +6447,17 @@
       <c r="BY161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD161" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="B162" s="3">
+        <v>115</v>
+      </c>
       <c r="C162" s="1">
         <v>1600</v>
       </c>
@@ -5042,10 +6468,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B163" s="3">
+        <v>305</v>
+      </c>
       <c r="C163" s="1">
         <v>1530</v>
       </c>
@@ -5056,21 +6485,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="B164" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="C164" s="1">
         <v>2150</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
       </c>
-      <c r="E164" s="1">
-        <v>50</v>
-      </c>
-      <c r="F164" s="1">
-        <v>50</v>
+      <c r="E164" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I164" s="1">
         <v>-35</v>
@@ -5081,6 +6513,18 @@
       <c r="K164" s="1">
         <v>0</v>
       </c>
+      <c r="AH164" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK164" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM164" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN164" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS164" s="1">
         <v>15</v>
       </c>
@@ -5093,11 +6537,17 @@
       <c r="BY164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD164" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="B165" s="3">
+        <v>509</v>
+      </c>
       <c r="C165" s="1">
         <v>1800</v>
       </c>
@@ -5108,10 +6558,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="B166" s="3">
+        <v>469</v>
+      </c>
       <c r="C166" s="1">
         <v>1800</v>
       </c>
@@ -5122,10 +6575,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="B167" s="3">
+        <v>369</v>
+      </c>
       <c r="C167" s="1">
         <v>1190</v>
       </c>
@@ -5136,10 +6592,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="B168" s="3">
+        <v>320</v>
+      </c>
       <c r="C168" s="1">
         <v>1450</v>
       </c>
@@ -5150,10 +6609,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="B169" s="3">
+        <v>307</v>
+      </c>
       <c r="C169" s="1">
         <v>1190</v>
       </c>
@@ -5164,10 +6626,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="B170" s="3">
+        <v>329</v>
+      </c>
       <c r="C170" s="1">
         <v>1640</v>
       </c>
@@ -5178,10 +6643,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B171" s="3">
+        <v>266</v>
+      </c>
       <c r="C171" s="1">
         <v>2150</v>
       </c>
@@ -5192,10 +6660,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="B172" s="3">
+        <v>400</v>
+      </c>
       <c r="C172" s="1">
         <v>1570</v>
       </c>
@@ -5206,10 +6677,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="B173" s="3">
+        <v>406</v>
+      </c>
       <c r="C173" s="1">
         <v>1570</v>
       </c>
@@ -5220,10 +6694,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="B174" s="3">
+        <v>427</v>
+      </c>
       <c r="C174" s="1">
         <v>1100</v>
       </c>
@@ -5234,21 +6711,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="B175" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="C175" s="1">
         <v>2150</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
       </c>
-      <c r="E175" s="1">
-        <v>50</v>
-      </c>
-      <c r="F175" s="1">
-        <v>50</v>
+      <c r="E175" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I175" s="1">
         <v>-35</v>
@@ -5259,6 +6739,18 @@
       <c r="K175" s="1">
         <v>0</v>
       </c>
+      <c r="AH175" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK175" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM175" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN175" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS175" s="1">
         <v>15</v>
       </c>
@@ -5271,22 +6763,28 @@
       <c r="BY175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD175" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="B176" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="C176" s="1">
         <v>2150</v>
       </c>
       <c r="D176" s="1">
         <v>0</v>
       </c>
-      <c r="E176" s="1">
-        <v>50</v>
-      </c>
-      <c r="F176" s="1">
-        <v>50</v>
+      <c r="E176" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I176" s="1">
         <v>-35</v>
@@ -5297,6 +6795,18 @@
       <c r="K176" s="1">
         <v>0</v>
       </c>
+      <c r="AH176" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK176" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM176" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN176" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS176" s="1">
         <v>15</v>
       </c>
@@ -5308,12 +6818,18 @@
       </c>
       <c r="BY176" s="1">
         <v>0</v>
+      </c>
+      <c r="CD176" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="B177" s="3">
+        <v>476</v>
+      </c>
       <c r="C177" s="1">
         <v>1230</v>
       </c>
@@ -5328,6 +6844,9 @@
       <c r="A178" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="B178" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="C178" s="1">
         <v>2150</v>
       </c>
@@ -5342,6 +6861,9 @@
       <c r="A179" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="B179" s="3">
+        <v>250</v>
+      </c>
       <c r="C179" s="1">
         <v>2150</v>
       </c>
@@ -5356,6 +6878,9 @@
       <c r="A180" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="B180" s="3">
+        <v>283</v>
+      </c>
       <c r="C180" s="1">
         <v>2150</v>
       </c>
@@ -5370,6 +6895,9 @@
       <c r="A181" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="B181" s="3">
+        <v>299</v>
+      </c>
       <c r="C181" s="1">
         <v>2150</v>
       </c>
@@ -5384,6 +6912,9 @@
       <c r="A182" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="B182" s="3">
+        <v>261</v>
+      </c>
       <c r="C182" s="1">
         <v>2150</v>
       </c>
@@ -5398,6 +6929,9 @@
       <c r="A183" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="B183" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="C183" s="1">
         <v>2150</v>
       </c>
@@ -5412,6 +6946,9 @@
       <c r="A184" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="B184" s="3">
+        <v>274</v>
+      </c>
       <c r="C184" s="1">
         <v>2150</v>
       </c>
@@ -5426,6 +6963,9 @@
       <c r="A185" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="B185" s="3">
+        <v>379</v>
+      </c>
       <c r="C185" s="1">
         <v>1100</v>
       </c>
@@ -5440,6 +6980,9 @@
       <c r="A186" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="B186" s="3">
+        <v>181</v>
+      </c>
       <c r="C186" s="1">
         <v>1650</v>
       </c>
@@ -5454,6 +6997,9 @@
       <c r="A187" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B187" s="3">
+        <v>603</v>
+      </c>
       <c r="C187" s="1">
         <v>1250</v>
       </c>
@@ -5468,6 +7014,9 @@
       <c r="A188" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="B188" s="3">
+        <v>602</v>
+      </c>
       <c r="C188" s="1">
         <v>1500</v>
       </c>
@@ -5482,6 +7031,9 @@
       <c r="A189" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="B189" s="3">
+        <v>167</v>
+      </c>
       <c r="C189" s="1">
         <v>2000</v>
       </c>
@@ -5496,6 +7048,9 @@
       <c r="A190" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="B190" s="3">
+        <v>192</v>
+      </c>
       <c r="C190" s="1">
         <v>1400</v>
       </c>
@@ -5510,6 +7065,9 @@
       <c r="A191" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="B191" s="3">
+        <v>156</v>
+      </c>
       <c r="C191" s="1">
         <v>1600</v>
       </c>
@@ -5524,6 +7082,9 @@
       <c r="A192" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="B192" s="3">
+        <v>511</v>
+      </c>
       <c r="C192" s="1">
         <v>1800</v>
       </c>
@@ -5534,10 +7095,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B193" s="3">
+        <v>512</v>
+      </c>
       <c r="C193" s="1">
         <v>1800</v>
       </c>
@@ -5548,21 +7112,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B194" s="3">
+        <v>237</v>
+      </c>
       <c r="C194" s="1">
         <v>2150</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
       </c>
-      <c r="E194" s="1">
-        <v>50</v>
-      </c>
-      <c r="F194" s="1">
-        <v>50</v>
+      <c r="E194" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I194" s="1">
         <v>-35</v>
@@ -5573,6 +7140,18 @@
       <c r="K194" s="1">
         <v>0</v>
       </c>
+      <c r="AH194" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK194" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM194" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN194" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS194" s="1">
         <v>15</v>
       </c>
@@ -5585,11 +7164,17 @@
       <c r="BY194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD194" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="B195" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="C195" s="1">
         <v>2150</v>
       </c>
@@ -5600,10 +7185,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="B196" s="3">
+        <v>112</v>
+      </c>
       <c r="C196" s="1">
         <v>1600</v>
       </c>
@@ -5614,10 +7202,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="B197" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="C197" s="1">
         <v>1360</v>
       </c>
@@ -5628,10 +7219,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="B198" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="C198" s="1">
         <v>2150</v>
       </c>
@@ -5642,10 +7236,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="B199" s="3">
+        <v>255</v>
+      </c>
       <c r="C199" s="1">
         <v>2150</v>
       </c>
@@ -5656,10 +7253,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="B200" s="3">
+        <v>163</v>
+      </c>
       <c r="C200" s="1">
         <v>1600</v>
       </c>
@@ -5670,21 +7270,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="B201" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="C201" s="1">
         <v>2150</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
       </c>
-      <c r="E201" s="1">
-        <v>50</v>
-      </c>
-      <c r="F201" s="1">
-        <v>50</v>
+      <c r="E201" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I201" s="1">
         <v>-35</v>
@@ -5695,6 +7298,18 @@
       <c r="K201" s="1">
         <v>0</v>
       </c>
+      <c r="AH201" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK201" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM201" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN201" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS201" s="1">
         <v>15</v>
       </c>
@@ -5707,11 +7322,17 @@
       <c r="BY201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD201" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="202" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="B202" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="C202" s="1">
         <v>2150</v>
       </c>
@@ -5722,10 +7343,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="B203" s="3">
+        <v>601</v>
+      </c>
       <c r="C203" s="1">
         <v>1500</v>
       </c>
@@ -5736,10 +7360,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="B204" s="3">
+        <v>244</v>
+      </c>
       <c r="C204" s="1">
         <v>2150</v>
       </c>
@@ -5750,10 +7377,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="B205" s="3">
+        <v>238</v>
+      </c>
       <c r="C205" s="1">
         <v>2150</v>
       </c>
@@ -5764,10 +7394,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B206" s="3">
+        <v>291</v>
+      </c>
       <c r="C206" s="1">
         <v>2150</v>
       </c>
@@ -5778,10 +7411,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B207" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C207" s="1">
         <v>2150</v>
       </c>
@@ -5792,10 +7428,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="B208" s="3">
+        <v>508</v>
+      </c>
       <c r="C208" s="1">
         <v>1800</v>
       </c>
@@ -5806,10 +7445,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="B209" s="3">
+        <v>267</v>
+      </c>
       <c r="C209" s="1">
         <v>445</v>
       </c>
@@ -5820,10 +7462,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="B210" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C210" s="1">
         <v>1150</v>
       </c>
@@ -5834,10 +7479,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="B211" s="3">
+        <v>612</v>
+      </c>
       <c r="C211" s="1">
         <v>1600</v>
       </c>
@@ -5848,21 +7496,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B212" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C212" s="1">
         <v>2150</v>
       </c>
       <c r="D212" s="1">
         <v>0</v>
       </c>
-      <c r="E212" s="1">
-        <v>50</v>
-      </c>
-      <c r="F212" s="1">
-        <v>50</v>
+      <c r="E212" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I212" s="1">
         <v>-35</v>
@@ -5873,6 +7524,18 @@
       <c r="K212" s="1">
         <v>0</v>
       </c>
+      <c r="AH212" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM212" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN212" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS212" s="1">
         <v>15</v>
       </c>
@@ -5885,11 +7548,17 @@
       <c r="BY212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD212" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="B213" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C213" s="1">
         <v>2150</v>
       </c>
@@ -5900,10 +7569,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="B214" s="3">
+        <v>338</v>
+      </c>
       <c r="C214" s="1">
         <v>1600</v>
       </c>
@@ -5914,21 +7586,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="B215" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C215" s="1">
         <v>2150</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
       </c>
-      <c r="E215" s="1">
-        <v>50</v>
-      </c>
-      <c r="F215" s="1">
-        <v>50</v>
+      <c r="E215" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I215" s="1">
         <v>-35</v>
@@ -5939,6 +7614,18 @@
       <c r="K215" s="1">
         <v>0</v>
       </c>
+      <c r="AH215" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK215" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM215" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN215" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS215" s="1">
         <v>15</v>
       </c>
@@ -5951,22 +7638,28 @@
       <c r="BY215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD215" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B216" s="3">
+        <v>239</v>
+      </c>
       <c r="C216" s="1">
         <v>2150</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
       </c>
-      <c r="E216" s="1">
-        <v>50</v>
-      </c>
-      <c r="F216" s="1">
-        <v>50</v>
+      <c r="E216" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I216" s="1">
         <v>-35</v>
@@ -5977,6 +7670,18 @@
       <c r="K216" s="1">
         <v>0</v>
       </c>
+      <c r="AH216" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK216" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM216" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN216" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="BS216" s="1">
         <v>15</v>
       </c>
@@ -5989,11 +7694,17 @@
       <c r="BY216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="CD216" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="217" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B217" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" s="1">
         <v>2150</v>
       </c>
@@ -6004,10 +7715,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="B218" s="3">
+        <v>299</v>
+      </c>
       <c r="C218" s="1">
         <v>2150</v>
       </c>
@@ -6018,10 +7732,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="B219" s="3">
+        <v>245</v>
+      </c>
       <c r="C219" s="1">
         <v>2150</v>
       </c>
@@ -6032,7 +7749,88 @@
         <v>15</v>
       </c>
     </row>
+    <row r="220" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>260</v>
+      </c>
+      <c r="B220" s="3">
+        <v>526</v>
+      </c>
+      <c r="C220">
+        <v>600</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="221" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B221" s="3">
+        <v>496</v>
+      </c>
+      <c r="C221">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="222" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B222" s="3">
+        <v>179</v>
+      </c>
+      <c r="C222">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="223" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C223">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="224" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B224" s="3">
+        <v>503</v>
+      </c>
+      <c r="C224">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B225" s="3">
+        <v>138</v>
+      </c>
+      <c r="C225">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C226">
+        <v>1620</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:CX226"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/El Oficinista/listcodlargo.xlsx
+++ b/El Oficinista/listcodlargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merche\Desktop\El Oficinista\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merche\Desktop\El Oficinista\El Oficinista\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="268">
   <si>
     <t>PE-0500.000000</t>
   </si>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:CX226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="BL232" sqref="BL231:BL232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6050,8 +6050,14 @@
       <c r="C147" s="1">
         <v>1880</v>
       </c>
+      <c r="D147" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="K147" s="1">
         <v>0</v>
+      </c>
+      <c r="BK147" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="BS147" s="1">
         <v>15</v>
